--- a/MavenBook/src/test/resources/PurchaseOrderData.xlsx
+++ b/MavenBook/src/test/resources/PurchaseOrderData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Reference Number</t>
   </si>
@@ -44,29 +44,26 @@
     <t>ReTest20</t>
   </si>
   <si>
-    <t>Subject not req</t>
-  </si>
-  <si>
-    <t>Sales Person not req</t>
-  </si>
-  <si>
     <t>Purchase Order Date</t>
   </si>
   <si>
-    <t>01 Dec 2025-1</t>
-  </si>
-  <si>
     <t>Red Pen</t>
   </si>
   <si>
-    <t>03122025</t>
+    <t>161225-1</t>
+  </si>
+  <si>
+    <t>16122025</t>
+  </si>
+  <si>
+    <t>Banana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,12 +78,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -117,19 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -446,119 +431,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="G14" s="3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:E14" numberStoredAsText="1"/>
+    <ignoredError sqref="C6:C14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -568,24 +545,24 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -594,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3</v>

--- a/MavenBook/src/test/resources/PurchaseOrderData.xlsx
+++ b/MavenBook/src/test/resources/PurchaseOrderData.xlsx
@@ -35,9 +35,6 @@
     <t>Exp delivery Date</t>
   </si>
   <si>
-    <t>20122025</t>
-  </si>
-  <si>
     <t>Vendor Name</t>
   </si>
   <si>
@@ -50,13 +47,16 @@
     <t>Red Pen</t>
   </si>
   <si>
-    <t>161225-1</t>
-  </si>
-  <si>
-    <t>16122025</t>
-  </si>
-  <si>
     <t>Banana</t>
+  </si>
+  <si>
+    <t>231225-1</t>
+  </si>
+  <si>
+    <t>24-12-2025</t>
+  </si>
+  <si>
+    <t>30-12-2025</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -126,6 +126,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,41 +435,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -477,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -494,42 +498,6 @@
       <c r="C5" s="7"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -557,7 +525,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -568,10 +536,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -579,10 +547,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>4</v>
